--- a/projects/05-Real-Estate-Financial-Modeling-Case/Real Estate Financial Modeling Case.xlsx
+++ b/projects/05-Real-Estate-Financial-Modeling-Case/Real Estate Financial Modeling Case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19176\Desktop\BUS 356 Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBE1C42-2563-427E-A268-1B4F0633E3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA62A81-651D-4AD3-AB5D-FCC7AB9203B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{AA3A4E0A-484D-FA48-AF06-E3618777F2A2}"/>
+    <workbookView xWindow="-9550" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{AA3A4E0A-484D-FA48-AF06-E3618777F2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Exe Sum &amp; Dashboard" sheetId="9" r:id="rId1"/>
@@ -26,13 +26,13 @@
     <definedName name="_xlchart.v1.0" hidden="1">'Project 2 Financial Analysis'!$A$123</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Project 2 Financial Analysis'!$B$112:$O$112</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Project 2 Financial Analysis'!$B$123:$O$123</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Project 1 Financial Analysis'!$A$116:$B$116</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Project 1 Financial Analysis'!$C$105:$O$105</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Project 1 Financial Analysis'!$C$116:$O$116</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'Project 1 Financial Analysis'!$E$124</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">'Project 1 Financial Analysis'!$E$125:$E$135</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'Project 2 Financial Analysis'!$E$131</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">'Project 2 Financial Analysis'!$E$132:$E$142</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Project 1 Financial Analysis'!$A$116:$B$116</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Project 1 Financial Analysis'!$C$105:$O$105</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Project 1 Financial Analysis'!$C$116:$O$116</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Project 2 Financial Analysis'!$E$131</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'Project 2 Financial Analysis'!$E$132:$E$142</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">'Project 1 Financial Analysis'!$E$124</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">'Project 1 Financial Analysis'!$E$125:$E$135</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Exe Sum &amp; Dashboard'!$A$1:$BM$141</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Memo!$A$1:$N$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Project 1'!$A$1:$K$57</definedName>
@@ -1842,7 +1842,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="359">
+  <cellXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2730,8 +2730,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="6" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2772,6 +2770,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8819,10 +8820,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8860,7 +8861,7 @@
         <cx:series layoutId="waterfall" uniqueId="{803851DD-A729-4ED5-97E3-9008329D7918}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Net Profit Margin  </cx:v>
             </cx:txData>
           </cx:tx>
@@ -8982,7 +8983,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v2.7</cx:f>
+        <cx:f>_xlchart.v2.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9020,7 +9021,7 @@
         <cx:series layoutId="funnel" uniqueId="{D9E8DA68-6251-41D1-A177-D89100352443}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v2.6</cx:f>
+              <cx:f>_xlchart.v2.8</cx:f>
               <cx:v>Year-End Principal</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9089,7 +9090,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v2.9</cx:f>
+        <cx:f>_xlchart.v2.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9127,7 +9128,7 @@
         <cx:series layoutId="funnel" uniqueId="{293E247A-D164-47E4-ADAC-D43BF6143A83}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v2.8</cx:f>
+              <cx:f>_xlchart.v2.3</cx:f>
               <cx:v>Year-End Principal</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15228,8 +15229,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>73083</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15245,7 +15246,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="731752" y="382152"/>
-          <a:ext cx="10295081" cy="21017348"/>
+          <a:ext cx="10295081" cy="20414098"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15300,25 +15301,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>To: CFO</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
             <a:t>Subject: Real Estate Financing </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>From: Team 6,   MJ Sanacore, Terrence Ho, Neoma Khan, Christina Alex</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15828,8 +15811,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="36556726" y="11844026"/>
-              <a:ext cx="10807251" cy="13990239"/>
+              <a:off x="36497036" y="11921496"/>
+              <a:ext cx="10783121" cy="14084219"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15906,8 +15889,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="36556726" y="841635"/>
-              <a:ext cx="10824658" cy="10861190"/>
+              <a:off x="36497036" y="841635"/>
+              <a:ext cx="10804338" cy="10936120"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15984,8 +15967,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11970249" y="5825191"/>
-              <a:ext cx="10938932" cy="5912273"/>
+              <a:off x="11949929" y="5858211"/>
+              <a:ext cx="10919882" cy="5955453"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -16062,8 +16045,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="23158512" y="5825191"/>
-              <a:ext cx="13133494" cy="5912273"/>
+              <a:off x="23121682" y="5858211"/>
+              <a:ext cx="13109364" cy="5955453"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17678,8 +17661,8 @@
   </sheetPr>
   <dimension ref="Q2:BM141"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BS53" sqref="BS53"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BV17" sqref="BV17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17689,57 +17672,57 @@
   <sheetData>
     <row r="2" spans="17:65" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="17:65" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="Q3" s="345" t="s">
+      <c r="Q3" s="343" t="s">
         <v>185</v>
       </c>
-      <c r="R3" s="346"/>
-      <c r="S3" s="346"/>
-      <c r="T3" s="346"/>
-      <c r="U3" s="346"/>
-      <c r="V3" s="346"/>
-      <c r="W3" s="346"/>
-      <c r="X3" s="346"/>
-      <c r="Y3" s="346"/>
-      <c r="Z3" s="346"/>
-      <c r="AA3" s="346"/>
-      <c r="AB3" s="346"/>
-      <c r="AC3" s="346"/>
-      <c r="AD3" s="346"/>
-      <c r="AE3" s="346"/>
-      <c r="AF3" s="346"/>
-      <c r="AG3" s="346"/>
-      <c r="AH3" s="346"/>
-      <c r="AI3" s="346"/>
-      <c r="AJ3" s="346"/>
-      <c r="AK3" s="346"/>
-      <c r="AL3" s="346"/>
-      <c r="AM3" s="346"/>
-      <c r="AN3" s="346"/>
-      <c r="AO3" s="346"/>
-      <c r="AP3" s="346"/>
-      <c r="AQ3" s="346"/>
-      <c r="AR3" s="346"/>
-      <c r="AS3" s="346"/>
-      <c r="AT3" s="346"/>
-      <c r="AU3" s="346"/>
-      <c r="AV3" s="346"/>
-      <c r="AW3" s="346"/>
-      <c r="AX3" s="346"/>
-      <c r="AY3" s="343"/>
-      <c r="AZ3" s="343"/>
-      <c r="BA3" s="343"/>
-      <c r="BB3" s="343"/>
-      <c r="BC3" s="343"/>
-      <c r="BD3" s="343"/>
-      <c r="BE3" s="343"/>
-      <c r="BF3" s="343"/>
-      <c r="BG3" s="343"/>
-      <c r="BH3" s="343"/>
-      <c r="BI3" s="343"/>
-      <c r="BJ3" s="343"/>
-      <c r="BK3" s="343"/>
-      <c r="BL3" s="343"/>
-      <c r="BM3" s="344"/>
+      <c r="R3" s="344"/>
+      <c r="S3" s="344"/>
+      <c r="T3" s="344"/>
+      <c r="U3" s="344"/>
+      <c r="V3" s="344"/>
+      <c r="W3" s="344"/>
+      <c r="X3" s="344"/>
+      <c r="Y3" s="344"/>
+      <c r="Z3" s="344"/>
+      <c r="AA3" s="344"/>
+      <c r="AB3" s="344"/>
+      <c r="AC3" s="344"/>
+      <c r="AD3" s="344"/>
+      <c r="AE3" s="344"/>
+      <c r="AF3" s="344"/>
+      <c r="AG3" s="344"/>
+      <c r="AH3" s="344"/>
+      <c r="AI3" s="344"/>
+      <c r="AJ3" s="344"/>
+      <c r="AK3" s="344"/>
+      <c r="AL3" s="344"/>
+      <c r="AM3" s="344"/>
+      <c r="AN3" s="344"/>
+      <c r="AO3" s="344"/>
+      <c r="AP3" s="344"/>
+      <c r="AQ3" s="344"/>
+      <c r="AR3" s="344"/>
+      <c r="AS3" s="344"/>
+      <c r="AT3" s="344"/>
+      <c r="AU3" s="344"/>
+      <c r="AV3" s="344"/>
+      <c r="AW3" s="344"/>
+      <c r="AX3" s="344"/>
+      <c r="AY3" s="344"/>
+      <c r="AZ3" s="344"/>
+      <c r="BA3" s="344"/>
+      <c r="BB3" s="344"/>
+      <c r="BC3" s="344"/>
+      <c r="BD3" s="344"/>
+      <c r="BE3" s="344"/>
+      <c r="BF3" s="344"/>
+      <c r="BG3" s="344"/>
+      <c r="BH3" s="344"/>
+      <c r="BI3" s="344"/>
+      <c r="BJ3" s="344"/>
+      <c r="BK3" s="344"/>
+      <c r="BL3" s="344"/>
+      <c r="BM3" s="357"/>
     </row>
     <row r="4" spans="17:65" x14ac:dyDescent="0.3">
       <c r="Q4" s="90"/>
@@ -24781,7 +24764,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="Q3:AX3"/>
+    <mergeCell ref="Q3:BM3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="17" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -30364,11 +30347,11 @@
       </c>
     </row>
     <row r="108" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="349" t="s">
+      <c r="A108" s="347" t="s">
         <v>165</v>
       </c>
-      <c r="B108" s="350"/>
-      <c r="C108" s="350"/>
+      <c r="B108" s="348"/>
+      <c r="C108" s="348"/>
       <c r="D108" s="59">
         <f>'Project 1'!B30</f>
         <v>57637500</v>
@@ -30778,10 +30761,10 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="47"/>
-      <c r="B119" s="347" t="s">
+      <c r="B119" s="345" t="s">
         <v>156</v>
       </c>
-      <c r="C119" s="351"/>
+      <c r="C119" s="349"/>
       <c r="D119" s="49">
         <f>D108</f>
         <v>57637500</v>
@@ -30800,10 +30783,10 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="47"/>
-      <c r="B120" s="347" t="s">
+      <c r="B120" s="345" t="s">
         <v>157</v>
       </c>
-      <c r="C120" s="351"/>
+      <c r="C120" s="349"/>
       <c r="D120" s="51">
         <f>'Project 1'!B22</f>
         <v>5.2499999999999998E-2</v>
@@ -30822,10 +30805,10 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="47"/>
-      <c r="B121" s="347" t="s">
+      <c r="B121" s="345" t="s">
         <v>158</v>
       </c>
-      <c r="C121" s="351"/>
+      <c r="C121" s="349"/>
       <c r="D121" s="44">
         <v>10</v>
       </c>
@@ -30843,10 +30826,10 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="47"/>
-      <c r="B122" s="352" t="s">
+      <c r="B122" s="350" t="s">
         <v>159</v>
       </c>
-      <c r="C122" s="353"/>
+      <c r="C122" s="351"/>
       <c r="D122" s="44">
         <v>1</v>
       </c>
@@ -30864,10 +30847,10 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="47"/>
-      <c r="B123" s="347" t="s">
+      <c r="B123" s="345" t="s">
         <v>160</v>
       </c>
-      <c r="C123" s="348"/>
+      <c r="C123" s="346"/>
       <c r="D123" s="54"/>
       <c r="E123" s="52"/>
       <c r="F123" s="1"/>
@@ -33654,7 +33637,7 @@
   </sheetPr>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
@@ -39382,11 +39365,11 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="349" t="s">
+      <c r="A115" s="347" t="s">
         <v>165</v>
       </c>
-      <c r="B115" s="350"/>
-      <c r="C115" s="350"/>
+      <c r="B115" s="348"/>
+      <c r="C115" s="348"/>
       <c r="D115" s="59">
         <f>'Project 2'!B30</f>
         <v>85949709.761698291</v>
@@ -39752,20 +39735,20 @@
       <c r="A124" s="21"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A125" s="356" t="s">
+      <c r="A125" s="354" t="s">
         <v>166</v>
       </c>
-      <c r="B125" s="357"/>
+      <c r="B125" s="355"/>
       <c r="C125" s="223"/>
       <c r="D125" s="223"/>
       <c r="E125" s="231"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="47"/>
-      <c r="B126" s="358" t="s">
+      <c r="B126" s="356" t="s">
         <v>156</v>
       </c>
-      <c r="C126" s="358"/>
+      <c r="C126" s="356"/>
       <c r="D126" s="104">
         <f>D115</f>
         <v>85949709.761698291</v>
@@ -39774,10 +39757,10 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="47"/>
-      <c r="B127" s="358" t="s">
+      <c r="B127" s="356" t="s">
         <v>157</v>
       </c>
-      <c r="C127" s="358"/>
+      <c r="C127" s="356"/>
       <c r="D127" s="105">
         <f>'Project 2'!B22</f>
         <v>5.2499999999999998E-2</v>
@@ -39786,10 +39769,10 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="47"/>
-      <c r="B128" s="358" t="s">
+      <c r="B128" s="356" t="s">
         <v>158</v>
       </c>
-      <c r="C128" s="358"/>
+      <c r="C128" s="356"/>
       <c r="D128" s="102">
         <v>10</v>
       </c>
@@ -39797,10 +39780,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="47"/>
-      <c r="B129" s="354" t="s">
+      <c r="B129" s="352" t="s">
         <v>159</v>
       </c>
-      <c r="C129" s="354"/>
+      <c r="C129" s="352"/>
       <c r="D129" s="102">
         <v>1</v>
       </c>
@@ -39808,10 +39791,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="47"/>
-      <c r="B130" s="355" t="s">
+      <c r="B130" s="353" t="s">
         <v>160</v>
       </c>
-      <c r="C130" s="355"/>
+      <c r="C130" s="353"/>
       <c r="D130" s="103"/>
       <c r="E130" s="247"/>
     </row>
